--- a/spreads/qcom.xlsx
+++ b/spreads/qcom.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +435,13 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>QUALCOMM Incorporated (QCOM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>-$0.83 (-0.40%)</t>
         </is>
       </c>
     </row>
@@ -562,7 +569,7 @@
         <v>35820</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>36292</v>
+        <v>36407</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +610,7 @@
         <v>35820</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>36292</v>
+        <v>36407</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +688,7 @@
         <v>-15869</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-16137</v>
+        <v>-16090</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +729,7 @@
         <v>19951</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>20155</v>
+        <v>20317</v>
       </c>
     </row>
     <row r="8">
@@ -800,7 +807,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.555</v>
+        <v>0.5579999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +848,7 @@
         <v>-2483</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-2487</v>
+        <v>-2580</v>
       </c>
     </row>
     <row r="11">
@@ -882,7 +889,7 @@
         <v>-8818</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>-8663</v>
+        <v>-8689</v>
       </c>
     </row>
     <row r="12">
@@ -963,7 +970,7 @@
         <v>-11301</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>-11150</v>
+        <v>-11269</v>
       </c>
     </row>
     <row r="15">
@@ -1004,7 +1011,7 @@
         <v>8650</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>9005</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1089,7 @@
         <v>0.241</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="18">
@@ -1123,7 +1130,7 @@
         <v>-694</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>-702</v>
+        <v>-696</v>
       </c>
     </row>
     <row r="19">
@@ -1164,7 +1171,7 @@
         <v>313</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>407</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1268,7 @@
         <v>72</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -1302,7 +1309,7 @@
         <v>8341</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>8817</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="24">
@@ -1337,7 +1344,7 @@
         <v>-712</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>-604</v>
+        <v>-396</v>
       </c>
     </row>
     <row r="25">
@@ -1399,7 +1406,7 @@
         <v>-36</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>-29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -1567,7 +1574,7 @@
         <v>7443</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>8034</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="33">
@@ -1608,7 +1615,7 @@
         <v>-104</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>-157</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="34">
@@ -1649,7 +1656,7 @@
         <v>7339</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>7877</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="35">
@@ -1676,7 +1683,7 @@
         <v>-107</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>-113</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1724,7 @@
         <v>7232</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>7764</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="37">
@@ -1785,7 +1792,7 @@
         <v>7232</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>7764</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1833,7 @@
         <v>7232</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>7764</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="40">
@@ -1867,7 +1874,7 @@
         <v>0.202</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0.214</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
@@ -1908,7 +1915,7 @@
         <v>7339</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>7877</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="42">
@@ -1949,7 +1956,7 @@
         <v>0.205</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0.217</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="43">
@@ -1997,7 +2004,7 @@
         <v>6.52</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>7.01</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="45">
@@ -2075,7 +2082,7 @@
         <v>1126</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47">
@@ -2229,7 +2236,7 @@
         <v>3.1</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="51">
@@ -2307,7 +2314,7 @@
         <v>0.479</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>0.453</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="53">
@@ -2348,7 +2355,7 @@
         <v>6.47</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>6.96</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="54">
@@ -2389,7 +2396,7 @@
         <v>10459</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>10853</v>
+        <v>10837</v>
       </c>
     </row>
     <row r="55">
@@ -2506,7 +2513,7 @@
         <v>8818</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>8663</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="58">
@@ -2547,7 +2554,7 @@
         <v>0.014</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2681,7 @@
         <v>8450</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>8133</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="4">
@@ -2715,7 +2722,7 @@
         <v>2874</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>3921</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="5">
@@ -2756,7 +2763,7 @@
         <v>11324</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>12054</v>
+        <v>13851</v>
       </c>
     </row>
     <row r="6">
@@ -2797,7 +2804,7 @@
         <v>3146</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>3513</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="7">
@@ -2877,7 +2884,7 @@
         <v>3183</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>3513</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="9">
@@ -2918,7 +2925,7 @@
         <v>6826</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>6247</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="10">
@@ -2982,7 +2989,7 @@
         <v>1131</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>1625</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="12">
@@ -3023,7 +3030,7 @@
         <v>22464</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>23439</v>
+        <v>24232</v>
       </c>
     </row>
     <row r="13">
@@ -3142,7 +3149,7 @@
         <v>5654</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>4907</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="16">
@@ -3222,7 +3229,7 @@
         <v>10642</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>10722</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="18">
@@ -3263,7 +3270,7 @@
         <v>1408</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1387</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="19">
@@ -3323,7 +3330,7 @@
         <v>3310</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>3579</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="21">
@@ -3364,7 +3371,7 @@
         <v>6326</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>8101</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="22">
@@ -3405,7 +3412,7 @@
         <v>51040</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>52135</v>
+        <v>53167</v>
       </c>
     </row>
     <row r="23">
@@ -3446,7 +3453,7 @@
         <v>1912</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>2147</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="24">
@@ -3487,7 +3494,7 @@
         <v>3506</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1757</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="25">
@@ -3614,7 +3621,9 @@
       <c r="L28" s="1" t="n">
         <v>1717</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" s="1" t="n">
+        <v>1093</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3654,7 +3663,7 @@
         <v>293</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
@@ -3694,8 +3703,8 @@
       <c r="L30" s="1" t="n">
         <v>1188</v>
       </c>
-      <c r="M30" s="1" t="n">
-        <v>4141</v>
+      <c r="M30" s="2" t="n">
+        <v>875</v>
       </c>
     </row>
     <row r="31">
@@ -3736,7 +3745,7 @@
         <v>9628</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>9169</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="32">
@@ -3775,7 +3784,7 @@
         <v>14484</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>14566</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="33">
@@ -3843,7 +3852,7 @@
         <v>99</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
@@ -3923,7 +3932,7 @@
         <v>4566</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>5249</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="37">
@@ -3964,7 +3973,7 @@
         <v>29459</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>29077</v>
+        <v>28698</v>
       </c>
     </row>
     <row r="38">
@@ -3998,7 +4007,9 @@
       <c r="L38" s="2" t="n">
         <v>490</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" s="2" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4057,7 +4068,7 @@
         <v>20733</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>22565</v>
+        <v>23965</v>
       </c>
     </row>
     <row r="41">
@@ -4098,7 +4109,7 @@
         <v>358</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>493</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42">
@@ -4139,7 +4150,7 @@
         <v>21581</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>23058</v>
+        <v>24469</v>
       </c>
     </row>
     <row r="43">
@@ -4205,7 +4216,7 @@
         <v>21581</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>23058</v>
+        <v>24469</v>
       </c>
     </row>
     <row r="45">
@@ -4246,7 +4257,7 @@
         <v>51040</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>52135</v>
+        <v>53167</v>
       </c>
     </row>
     <row r="46">
@@ -4335,7 +4346,7 @@
         <v>19.37</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>20.62</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="49">
@@ -4376,7 +4387,7 @@
         <v>9531</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>10949</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="50">
@@ -4417,7 +4428,7 @@
         <v>8.56</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.789999999999999</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="51">
@@ -4456,7 +4467,7 @@
         <v>16067</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>15480</v>
+        <v>15457</v>
       </c>
     </row>
     <row r="52">
@@ -4497,7 +4508,7 @@
         <v>4743</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>3426</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="53">
@@ -4738,7 +4749,7 @@
         <v>7232</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>7764</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="4">
@@ -4779,7 +4790,7 @@
         <v>1391</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1430</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="5">
@@ -4861,7 +4872,7 @@
         <v>1809</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>1848</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7">
@@ -4942,7 +4953,7 @@
         <v>-20</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>-66</v>
+        <v>-287</v>
       </c>
     </row>
     <row r="10">
@@ -5041,7 +5052,7 @@
         <v>2484</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>2452</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="13">
@@ -5091,7 +5102,7 @@
         <v>-399</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-387</v>
+        <v>-429</v>
       </c>
     </row>
     <row r="15">
@@ -5132,7 +5143,7 @@
         <v>-1137</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-1981</v>
+        <v>-2358</v>
       </c>
     </row>
     <row r="16">
@@ -5192,7 +5203,7 @@
         <v>2472</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>453</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -5233,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>649</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19">
@@ -5274,7 +5285,7 @@
         <v>-1880</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>-375</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20">
@@ -5315,7 +5326,7 @@
         <v>-56</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>-56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -5374,8 +5385,8 @@
       <c r="L22" s="2" t="n">
         <v>604</v>
       </c>
-      <c r="M22" s="2" t="n">
-        <v>670</v>
+      <c r="M22" s="1" t="n">
+        <v>1168</v>
       </c>
     </row>
     <row r="23">
@@ -5416,7 +5427,7 @@
         <v>11299</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>11153</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="24">
@@ -5457,7 +5468,7 @@
         <v>1148</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1341</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="25">
@@ -5497,8 +5508,8 @@
       <c r="L25" s="1" t="n">
         <v>-1450</v>
       </c>
-      <c r="M25" s="1" t="n">
-        <v>-1266</v>
+      <c r="M25" s="2" t="n">
+        <v>-997</v>
       </c>
     </row>
     <row r="26">
@@ -5529,7 +5540,7 @@
         <v>127</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -5570,7 +5581,7 @@
         <v>-235</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>-266</v>
+        <v>-339</v>
       </c>
     </row>
     <row r="28">
@@ -5650,8 +5661,8 @@
       <c r="L30" s="2" t="n">
         <v>918</v>
       </c>
-      <c r="M30" s="2" t="n">
-        <v>-268</v>
+      <c r="M30" s="1" t="n">
+        <v>-1164</v>
       </c>
     </row>
     <row r="31">
@@ -5711,7 +5722,7 @@
         <v>1402</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>1418</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="33">
@@ -5751,8 +5762,8 @@
       <c r="L33" s="2" t="n">
         <v>762</v>
       </c>
-      <c r="M33" s="2" t="n">
-        <v>-361</v>
+      <c r="M33" s="1" t="n">
+        <v>-1076</v>
       </c>
     </row>
     <row r="34">
@@ -5791,7 +5802,7 @@
         <v>6948</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>4010</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="35">
@@ -5830,7 +5841,7 @@
         <v>-7012</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>-5457</v>
+        <v>-1697</v>
       </c>
     </row>
     <row r="36">
@@ -5871,7 +5882,7 @@
         <v>434</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37">
@@ -5912,7 +5923,7 @@
         <v>-3494</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>-3069</v>
+        <v>-3019</v>
       </c>
     </row>
     <row r="38">
@@ -5953,7 +5964,7 @@
         <v>-3462</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>-3515</v>
+        <v>-3576</v>
       </c>
     </row>
     <row r="39">
@@ -5994,7 +6005,7 @@
         <v>-3462</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>-3515</v>
+        <v>-3576</v>
       </c>
     </row>
     <row r="40">
@@ -6035,7 +6046,7 @@
         <v>-77</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>-92</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="41">
@@ -6076,7 +6087,7 @@
         <v>-6663</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>-7689</v>
+        <v>-6726</v>
       </c>
     </row>
     <row r="42">
@@ -6117,7 +6128,7 @@
         <v>30</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>18</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="43">
@@ -6177,7 +6188,7 @@
         <v>5428</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>3121</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="45">
@@ -6225,7 +6236,7 @@
         <v>9849</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>9887</v>
+        <v>12253</v>
       </c>
     </row>
     <row r="47">
@@ -6303,7 +6314,7 @@
         <v>0.275</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>0.272</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="49">
@@ -6385,7 +6396,7 @@
         <v>8527</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>8194</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="51">
@@ -6504,7 +6515,7 @@
         <v>8.82</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>8.859999999999999</v>
+        <v>10.98</v>
       </c>
     </row>
   </sheetData>
@@ -6534,232 +6545,232 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>12/30/12</t>
+          <t>3/31/13</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>3/31/13</t>
+          <t>6/30/13</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>6/30/13</t>
+          <t>9/29/13</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>9/29/13</t>
+          <t>12/29/13</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>12/29/13</t>
+          <t>3/30/14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>3/30/14</t>
+          <t>6/29/14</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>6/29/14</t>
+          <t>9/28/14</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>9/28/14</t>
+          <t>12/28/14</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>12/28/14</t>
+          <t>3/29/15</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>3/29/15</t>
+          <t>6/28/15</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>6/28/15</t>
+          <t>9/27/15</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>9/27/15</t>
+          <t>12/27/15</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>12/27/15</t>
+          <t>3/27/16</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>3/27/16</t>
+          <t>6/26/16</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>6/26/16</t>
+          <t>9/25/16</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>9/25/16</t>
+          <t>12/25/16</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>12/25/16</t>
+          <t>3/26/17</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>3/26/17</t>
+          <t>6/25/17</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>6/25/17</t>
+          <t>9/24/17</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>9/24/17</t>
+          <t>12/24/17</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>12/24/17</t>
+          <t>3/25/18</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>3/25/18</t>
+          <t>6/24/18</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>6/24/18</t>
+          <t>9/30/18</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>9/30/18</t>
+          <t>12/30/18</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>12/30/18</t>
+          <t>3/31/19</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>3/31/19</t>
+          <t>6/30/19</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>6/30/19</t>
+          <t>9/29/19</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>9/29/19</t>
+          <t>12/29/19</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>12/29/19</t>
+          <t>3/29/20</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>3/29/20</t>
+          <t>6/28/20</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>6/28/20</t>
+          <t>9/27/20</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>9/27/20</t>
+          <t>12/27/20</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>12/27/20</t>
+          <t>3/28/21</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>3/28/21</t>
+          <t>6/27/21</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>6/27/21</t>
+          <t>9/26/21</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>9/26/21</t>
+          <t>12/26/21</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>12/26/21</t>
+          <t>3/27/22</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>3/27/22</t>
+          <t>6/26/22</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>6/26/22</t>
+          <t>9/25/22</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>9/25/22</t>
+          <t>12/25/22</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>12/25/22</t>
+          <t>3/26/23</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>3/26/23</t>
+          <t>6/25/23</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>6/25/23</t>
+          <t>9/24/23</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>9/24/23</t>
+          <t>12/24/23</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>12/24/23</t>
+          <t>3/24/24</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>3/22/24</t>
+          <t>6/11/24</t>
         </is>
       </c>
     </row>
@@ -6781,205 +6792,209 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.58x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.58x</t>
+          <t>3.26x</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>3.37x</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.88x</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2.88x</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2.64x</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.35x</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2.48x</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.52x</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>3.10x</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>3.26x</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.37x</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2.88x</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2.88x</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2.64x</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2.35x</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.48x</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.52x</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3.10x</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.26x</t>
+          <t>2.71x</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.71x</t>
+          <t>3.01x</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.01x</t>
+          <t>2.62x</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.62x</t>
+          <t>3.46x</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3.46x</t>
+          <t>2.85x</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2.85x</t>
+          <t>3.22x</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>3.22x</t>
+          <t>3.94x</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>3.94x</t>
+          <t>3.51x</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>3.51x</t>
+          <t>3.55x</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>3.55x</t>
+          <t>4.42x</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>4.42x</t>
+          <t>4.70x</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>4.70x</t>
+          <t>4.79x</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>4.79x</t>
+          <t>3.39x</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3.39x</t>
+          <t>4.50x</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.50x</t>
+          <t>5.13x</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>5.13x</t>
+          <t>5.74x</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>5.74x</t>
+          <t>4.85x</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.85x</t>
+          <t>4.72x</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.72x</t>
+          <t>4.28x</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.28x</t>
+          <t>5.30x</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>5.30x</t>
+          <t>4.16x</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>4.16x</t>
+          <t>3.06x</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>3.08x</t>
+          <t>3.13x</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3.14x</t>
+          <t>3.33x</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>3.33x</t>
+          <t>3.71x</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>3.71x</t>
+          <t>3.72x</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>3.72x</t>
+          <t>3.52x</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>3.52x</t>
+          <t>4.36x</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>4.36x</t>
+          <t>5.01x</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>5.01x</t>
+          <t>5.83x</t>
         </is>
       </c>
     </row>
@@ -6994,205 +7009,209 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.71x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.71x</t>
+          <t>4.41x</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.41x</t>
+          <t>4.52x</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.52x</t>
+          <t>4.04x</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.04x</t>
+          <t>4.01x</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4.01x</t>
+          <t>3.72x</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.72x</t>
+          <t>3.21x</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3.21x</t>
+          <t>3.34x</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.34x</t>
+          <t>3.30x</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>3.91x</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.12x</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3.45x</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>3.77x</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>3.30x</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>3.91x</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>4.12x</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>3.45x</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>3.77x</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>4.19x</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.63x</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>3.97x</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>4.55x</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>3.30x</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>4.19x</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>3.63x</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>3.97x</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>4.55x</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>3.30x</t>
+          <t>3.27x</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>3.27x</t>
+          <t>4.15x</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>4.15x</t>
+          <t>4.60x</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>4.62x</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>3.18x</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>4.23x</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>4.91x</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>5.57x</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>4.74x</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>4.60x</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>4.62x</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>3.18x</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>4.20x</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>5.20x</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>4.06x</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>2.97x</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>2.94x</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>3.09x</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>3.49x</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>3.47x</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>3.33x</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>4.23x</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>4.91x</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>5.57x</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>4.74x</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>4.60x</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>4.20x</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>5.20x</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>4.06x</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>2.99x</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>2.95x</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>3.09x</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>3.49x</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>3.47x</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>3.33x</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>4.23x</t>
+          <t>4.92x</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>4.92x</t>
+          <t>5.79x</t>
         </is>
       </c>
     </row>
@@ -7207,205 +7226,209 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.07x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.07x</t>
+          <t>9.08x</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9.08x</t>
+          <t>9.11x</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9.11x</t>
+          <t>7.74x</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7.74x</t>
+          <t>7.78x</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.78x</t>
+          <t>7.28x</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7.28x</t>
+          <t>6.17x</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6.17x</t>
+          <t>6.30x</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6.30x</t>
+          <t>6.46x</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>6.46x</t>
+          <t>7.59x</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7.59x</t>
+          <t>8.33x</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>8.33x</t>
+          <t>6.79x</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>6.79x</t>
+          <t>8.24x</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>8.24x</t>
+          <t>6.81x</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>6.81x</t>
+          <t>9.95x</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>9.95x</t>
+          <t>7.85x</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>7.85x</t>
+          <t>9.94x</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>9.94x</t>
+          <t>11.97x</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>11.97x</t>
+          <t>12.46x</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12.46x</t>
+          <t>11.27x</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>11.27x</t>
+          <t>13.11x</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13.11x</t>
+          <t>15.59x</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>15.59x</t>
+          <t>14.78x</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>14.78x</t>
+          <t>9.92x</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>9.92x</t>
+          <t>13.27x</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>13.27x</t>
+          <t>13.45x</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>13.45x</t>
+          <t>15.53x</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>15.53x</t>
+          <t>12.21x</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>12.21x</t>
+          <t>11.87x</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>11.87x</t>
+          <t>10.54x</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>10.54x</t>
+          <t>13.25x</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>13.25x</t>
+          <t>9.89x</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9.89x</t>
+          <t>7.29x</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>7.29x</t>
+          <t>7.46x</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7.46x</t>
+          <t>8.43x</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>8.43x</t>
+          <t>9.68x</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>9.68x</t>
+          <t>10.07x</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>10.07x</t>
+          <t>9.73x</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>9.73x</t>
+          <t>11.98x</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>11.98x</t>
+          <t>13.20x</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>13.18x</t>
+          <t>15.32x</t>
         </is>
       </c>
     </row>
@@ -7420,205 +7443,209 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.84x</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.84x</t>
+          <t>9.25x</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9.25x</t>
+          <t>9.95x</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.95x</t>
+          <t>8.65x</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8.65x</t>
+          <t>8.91x</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8.91x</t>
+          <t>8.09x</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8.09x</t>
+          <t>7.35x</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7.35x</t>
+          <t>7.48x</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7.48x</t>
+          <t>7.61x</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>7.61x</t>
+          <t>9.08x</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>9.08x</t>
+          <t>9.48x</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>9.48x</t>
+          <t>7.85x</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>7.85x</t>
+          <t>10.27x</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>10.27x</t>
+          <t>10.03x</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>10.03x</t>
+          <t>13.10x</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>13.10x</t>
+          <t>10.94x</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>10.94x</t>
+          <t>13.58x</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>13.58x</t>
+          <t>15.63x</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>15.63x</t>
+          <t>14.50x</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14.50x</t>
+          <t>14.15x</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>14.15x</t>
+          <t>16.17x</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16.17x</t>
+          <t>18.70x</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>18.70x</t>
+          <t>17.67x</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>17.67x</t>
+          <t>12.23x</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>12.23x</t>
+          <t>16.67x</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>16.67x</t>
+          <t>16.50x</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>16.50x</t>
+          <t>17.62x</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>17.62x</t>
+          <t>14.65x</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>14.65x</t>
+          <t>14.06x</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>14.06x</t>
+          <t>12.24x</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>12.24x</t>
+          <t>14.29x</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>14.29x</t>
+          <t>10.98x</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>10.98x</t>
+          <t>8.11x</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>8.11x</t>
+          <t>8.38x</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>8.38x</t>
+          <t>9.68x</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>9.68x</t>
+          <t>10.69x</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>10.69x</t>
+          <t>11.74x</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>11.74x</t>
+          <t>11.08x</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>11.08x</t>
+          <t>13.39x</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>13.39x</t>
+          <t>15.05x</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>15.04x</t>
+          <t>17.23x</t>
         </is>
       </c>
     </row>
@@ -7633,205 +7660,209 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>14.29x</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.29x</t>
+          <t>13.84x</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13.84x</t>
+          <t>14.52x</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14.52x</t>
+          <t>13.35x</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13.35x</t>
+          <t>14.02x</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14.02x</t>
+          <t>12.33x</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12.33x</t>
+          <t>11.86x</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>11.86x</t>
+          <t>11.77x</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11.77x</t>
+          <t>11.85x</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>11.85x</t>
+          <t>13.41x</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13.41x</t>
+          <t>14.26x</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>14.26x</t>
+          <t>12.10x</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>12.10x</t>
+          <t>15.03x</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>15.03x</t>
+          <t>14.95x</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>14.95x</t>
+          <t>17.97x</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>17.97x</t>
+          <t>15.88x</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>15.88x</t>
+          <t>18.30x</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>18.30x</t>
+          <t>19.22x</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>19.22x</t>
+          <t>13.94x</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13.94x</t>
+          <t>14.99x</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>14.99x</t>
+          <t>18.09x</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>18.09x</t>
+          <t>21.98x</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>21.98x</t>
+          <t>21.23x</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>21.23x</t>
+          <t>14.24x</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>14.24x</t>
+          <t>19.01x</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>19.01x</t>
+          <t>19.79x</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>19.79x</t>
+          <t>21.03x</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>21.03x</t>
+          <t>17.88x</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>17.88x</t>
+          <t>17.01x</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>17.01x</t>
+          <t>14.87x</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>14.87x</t>
+          <t>17.19x</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17.19x</t>
+          <t>13.09x</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>13.09x</t>
+          <t>9.62x</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>9.62x</t>
+          <t>9.53x</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>9.53x</t>
+          <t>10.87x</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>10.87x</t>
+          <t>12.42x</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>12.42x</t>
+          <t>13.51x</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>13.51x</t>
+          <t>12.67x</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.67x</t>
+          <t>15.58x</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>15.59x</t>
+          <t>17.40x</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>17.43x</t>
+          <t>20.04x</t>
         </is>
       </c>
     </row>
@@ -7846,205 +7877,209 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14.58x</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.58x</t>
+          <t>13.98x</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>15.33x</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13.61x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12.36x</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>11.24x</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>10.85x</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>12.67x</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>12.24x</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>13.13x</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>13.98x</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>11.42x</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>14.21x</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>14.03x</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>20.86x</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>17.97x</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>19.86x</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>20.51x</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>15.98x</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>15.33x</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>13.61x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>12.36x</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>11.24x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>10.85x</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>12.67x</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>12.24x</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>13.13x</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>13.98x</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>11.42x</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>14.21x</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>14.03x</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>20.86x</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>17.97x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>19.86x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>20.51x</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>15.98x</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>15.33x</t>
+          <t>15.82x</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15.82x</t>
+          <t>15.45x</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>15.45x</t>
+          <t>23.06x</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>23.06x</t>
+          <t>13.91x</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>13.91x</t>
+          <t>20.97x</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>20.97x</t>
+          <t>19.54x</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>19.54x</t>
+          <t>18.49x</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>18.49x</t>
+          <t>14.90x</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>14.90x</t>
+          <t>16.76x</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>16.76x</t>
+          <t>14.24x</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.24x</t>
+          <t>17.80x</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>17.80x</t>
+          <t>12.22x</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>12.22x</t>
+          <t>9.50x</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>9.50x</t>
+          <t>8.47x</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>8.47x</t>
+          <t>9.90x</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>9.90x</t>
+          <t>11.60x</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>11.60x</t>
+          <t>11.72x</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>11.72x</t>
+          <t>12.56x</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>12.56x</t>
+          <t>15.97x</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>15.97x</t>
+          <t>17.81x</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>17.79x</t>
+          <t>20.66x</t>
         </is>
       </c>
     </row>
@@ -8059,126 +8094,128 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" s="3" t="n">
+        <v>0.06900000000000001</v>
+      </c>
       <c r="H9" s="3" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I9" s="3" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="Q9" s="3" t="n">
         <v>0.07200000000000001</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="R9" s="3" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="Z9" s="3" t="n">
         <v>0.065</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="P9" s="3" t="n">
+      <c r="AA9" s="3" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="AL9" s="3" t="n">
         <v>0.08199999999999999</v>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="V9" s="3" t="n">
+      <c r="AM9" s="3" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="AQ9" s="3" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="AU9" s="3" t="n">
         <v>0.048</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="X9" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="AA9" s="3" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>0.05400000000000001</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AK9" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AL9" s="3" t="n">
-        <v>0.05599999999999999</v>
-      </c>
-      <c r="AM9" s="3" t="n">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="AN9" s="3" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="AO9" s="3" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AP9" s="3" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="AQ9" s="3" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="AR9" s="3" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="AS9" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AT9" s="3" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="AU9" s="3" t="n">
-        <v>0.05599999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -8194,22 +8231,22 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0.022</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="N10" s="3" t="n">
         <v>0.04</v>
@@ -8218,61 +8255,61 @@
         <v>0.04</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
       <c r="S10" s="3" t="n">
         <v>0.039</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.044</v>
+        <v>0.036</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="W10" s="3" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="Y10" s="3" t="n">
         <v>0.045</v>
       </c>
-      <c r="X10" s="3" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Z10" s="3" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AA10" s="3" t="n">
         <v>0.035</v>
       </c>
-      <c r="Z10" s="3" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="AA10" s="3" t="n">
-        <v>0.046</v>
-      </c>
       <c r="AB10" s="3" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="AD10" s="3" t="n">
-        <v>0.028</v>
+        <v>0.04</v>
       </c>
       <c r="AE10" s="3" t="n">
-        <v>0.04</v>
+        <v>0.031</v>
       </c>
       <c r="AF10" s="3" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="AG10" s="3" t="n">
-        <v>0.024</v>
+        <v>0.017</v>
       </c>
       <c r="AH10" s="3" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="AI10" s="3" t="n">
         <v>0.021</v>
@@ -8281,37 +8318,37 @@
         <v>0.021</v>
       </c>
       <c r="AK10" s="3" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="AL10" s="3" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="AM10" s="3" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="AN10" s="3" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AO10" s="3" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AP10" s="3" t="n">
         <v>0.025</v>
       </c>
-      <c r="AP10" s="3" t="n">
-        <v>0.027</v>
-      </c>
       <c r="AQ10" s="3" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="AR10" s="3" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="AS10" s="3" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="AT10" s="3" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="AU10" s="3" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11">
@@ -8335,7 +8372,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.94x</t>
+          <t>3.54x</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8345,192 +8382,192 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.54x</t>
+          <t>2.93x</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.93x</t>
+          <t>2.66x</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.66x</t>
+          <t>2.24x</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.24x</t>
+          <t>2.16x</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.16x</t>
+          <t>2.35x</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.35x</t>
+          <t>2.59x</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.59x</t>
+          <t>3.21x</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3.21x</t>
+          <t>3.32x</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.32x</t>
+          <t>2.78x</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.78x</t>
+          <t>2.89x</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2.89x</t>
+          <t>2.70x</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2.70x</t>
+          <t>3.53x</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3.53x</t>
+          <t>2.79x</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2.79x</t>
+          <t>3.11x</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>3.11x</t>
+          <t>3.80x</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>3.80x</t>
+          <t>3.22x</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>3.22x</t>
+          <t>3.48x</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>3.48x</t>
+          <t>4.62x</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>4.62x</t>
+          <t>3.75x</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3.75x</t>
+          <t>4.33x</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>4.33x</t>
+          <t>3.31x</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3.31x</t>
+          <t>4.26x</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>4.26x</t>
+          <t>6.75x</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>6.75x</t>
+          <t>7.37x</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>7.37x</t>
+          <t>5.79x</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.79x</t>
+          <t>5.42x</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>5.42x</t>
+          <t>4.73x</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4.73x</t>
+          <t>6.21x</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>6.21x</t>
+          <t>5.06x</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5.06x</t>
+          <t>3.70x</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3.70x</t>
+          <t>3.44x</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>3.03x</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
           <t>3.44x</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>3.03x</t>
-        </is>
-      </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>3.44x</t>
+          <t>3.30x</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>3.30x</t>
+          <t>3.29x</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>3.29x</t>
+          <t>4.59x</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>4.59x</t>
+          <t>5.33x</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>5.33x</t>
+          <t>6.44x</t>
         </is>
       </c>
     </row>
@@ -8548,202 +8585,202 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.19x</t>
+          <t>4.79x</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.79x</t>
+          <t>4.75x</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.75x</t>
+          <t>4.10x</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.10x</t>
+          <t>3.70x</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3.70x</t>
+          <t>3.15x</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3.15x</t>
+          <t>2.95x</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2.95x</t>
+          <t>3.17x</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3.17x</t>
+          <t>3.39x</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.39x</t>
+          <t>4.05x</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>4.05x</t>
+          <t>4.19x</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.19x</t>
+          <t>3.54x</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.54x</t>
+          <t>3.62x</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3.62x</t>
+          <t>3.41x</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3.41x</t>
+          <t>4.28x</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>4.28x</t>
+          <t>3.55x</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>3.55x</t>
+          <t>3.84x</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>3.84x</t>
+          <t>4.39x</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>4.39x</t>
+          <t>3.03x</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>3.03x</t>
+          <t>3.20x</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>3.20x</t>
+          <t>4.34x</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>4.34x</t>
+          <t>3.67x</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3.67x</t>
+          <t>4.18x</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>4.18x</t>
+          <t>3.11x</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>4.00x</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>6.46x</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>7.15x</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>5.66x</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>5.28x</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>4.64x</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>6.10x</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>4.94x</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>3.59x</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>3.23x</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>2.81x</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>3.24x</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>3.08x</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
           <t>3.11x</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>4.00x</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>6.46x</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>7.15x</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>5.66x</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>5.28x</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>4.64x</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>6.10x</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>4.94x</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>3.59x</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>3.23x</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>2.81x</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>3.24x</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>3.08x</t>
-        </is>
-      </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>3.11x</t>
+          <t>4.46x</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>4.46x</t>
+          <t>5.24x</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>5.23x</t>
+          <t>6.39x</t>
         </is>
       </c>
     </row>
@@ -8814,202 +8851,202 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11.72x</t>
+          <t>10.46x</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.46x</t>
+          <t>10.20x</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.20x</t>
+          <t>8.42x</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8.42x</t>
+          <t>7.49x</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.49x</t>
+          <t>6.52x</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.52x</t>
+          <t>6.29x</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.29x</t>
+          <t>7.02x</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7.02x</t>
+          <t>7.07x</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>7.07x</t>
+          <t>9.55x</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>9.55x</t>
+          <t>9.48x</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>9.48x</t>
+          <t>7.72x</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>7.72x</t>
+          <t>8.52x</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>8.52x</t>
+          <t>8.54x</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>8.54x</t>
+          <t>12.03x</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>12.03x</t>
+          <t>10.16x</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>10.16x</t>
+          <t>10.73x</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>10.73x</t>
+          <t>12.57x</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>12.57x</t>
+          <t>10.76x</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10.76x</t>
+          <t>11.62x</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>11.62x</t>
+          <t>15.04x</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15.04x</t>
+          <t>8.59x</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>8.59x</t>
+          <t>11.08x</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>11.08x</t>
+          <t>8.41x</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>8.41x</t>
+          <t>10.88x</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>10.88x</t>
+          <t>27.60x</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>27.60x</t>
+          <t>22.76x</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>22.76x</t>
+          <t>16.92x</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>16.92x</t>
+          <t>15.37x</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>15.37x</t>
+          <t>13.01x</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>13.01x</t>
+          <t>18.33x</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>18.33x</t>
+          <t>14.31x</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>14.31x</t>
+          <t>10.02x</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>10.02x</t>
+          <t>8.62x</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>8.62x</t>
+          <t>8.09x</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>8.09x</t>
+          <t>9.70x</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>9.70x</t>
+          <t>10.10x</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>10.10x</t>
+          <t>10.44x</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>10.44x</t>
+          <t>15.72x</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>15.72x</t>
+          <t>17.84x</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>17.82x</t>
+          <t>21.62x</t>
         </is>
       </c>
     </row>
@@ -9027,202 +9064,202 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13.42x</t>
+          <t>11.98x</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11.98x</t>
+          <t>11.66x</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>9.61x</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>8.52x</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>7.50x</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7.31x</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>8.37x</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>8.46x</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>11.71x</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>11.47x</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>9.22x</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>10.30x</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>10.62x</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>15.48x</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>13.43x</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>14.04x</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>16.24x</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>13.98x</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>15.28x</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>19.53x</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>9.88x</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>13.01x</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>9.83x</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>12.71x</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>38.72x</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>27.85x</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>20.00x</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>17.87x</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>14.90x</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21.30x</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>16.40x</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>11.32x</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>9.59x</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>9.06x</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>10.96x</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>11.66x</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>9.61x</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>8.52x</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>7.50x</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>7.31x</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>8.37x</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>8.46x</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>11.71x</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>11.47x</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>9.22x</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>10.30x</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>10.62x</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>15.48x</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>13.43x</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>14.04x</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>16.24x</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>13.98x</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>15.28x</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>19.53x</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>9.88x</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>13.01x</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>9.83x</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>12.71x</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>38.72x</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>27.85x</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>20.00x</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>17.87x</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>14.90x</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>21.30x</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>16.40x</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>11.32x</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>9.59x</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>9.06x</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>10.96x</t>
-        </is>
-      </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>11.66x</t>
+          <t>12.29x</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>12.29x</t>
+          <t>19.01x</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>19.01x</t>
+          <t>21.50x</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>21.48x</t>
+          <t>25.90x</t>
         </is>
       </c>
     </row>
@@ -9240,194 +9277,194 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21.13x</t>
+          <t>18.10x</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>17.19x</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>14.16x</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>15.30x</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>14.56x</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15.39x</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>16.90x</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>16.44x</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>18.37x</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>17.55x</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>17.36x</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>18.97x</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>19.95x</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>39.23x</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>-18.95</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>-18.94</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>-25.25</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>-17.09</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>36.47x</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>40.17x</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>28.05x</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>24.74x</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>18.90x</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>25.84x</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>48.62x</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>32.92x</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>22.73x</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>19.71x</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>16.73x</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>23.22x</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
           <t>18.10x</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>17.19x</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>14.16x</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>15.30x</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>14.56x</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>15.39x</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>16.90x</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>16.44x</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>18.37x</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>17.55x</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>17.36x</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>18.97x</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>19.95x</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>39.23x</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>-18.95</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>-18.94</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>-25.25</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>-17.09</v>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>36.47x</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>40.17x</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>28.05x</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>24.74x</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>18.90x</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>25.84x</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>48.62x</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>32.92x</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>22.73x</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>19.71x</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>16.73x</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>23.22x</t>
-        </is>
-      </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>18.10x</t>
+          <t>12.82x</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>12.82x</t>
+          <t>10.74x</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>10.74x</t>
+          <t>9.71x</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>9.71x</t>
+          <t>11.95x</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>11.95x</t>
+          <t>12.08x</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>12.08x</t>
+          <t>14.09x</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>14.09x</t>
+          <t>22.01x</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>22.01x</t>
+          <t>24.27x</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>24.27x</t>
+          <t>27.79x</t>
         </is>
       </c>
     </row>
@@ -9445,202 +9482,202 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.48x</t>
+          <t>3.25x</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.25x</t>
+          <t>3.22x</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.22x</t>
+          <t>2.86x</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.86x</t>
+          <t>2.79x</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.79x</t>
+          <t>2.53x</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.53x</t>
+          <t>2.40x</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2.40x</t>
+          <t>2.51x</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.51x</t>
+          <t>2.58x</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.58x</t>
+          <t>3.02x</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.02x</t>
+          <t>3.11x</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>3.11x</t>
+          <t>2.70x</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2.70x</t>
+          <t>2.68x</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.68x</t>
+          <t>2.46x</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2.46x</t>
+          <t>3.10x</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3.10x</t>
+          <t>3.32x</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>3.32x</t>
+          <t>3.64x</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>3.64x</t>
+          <t>4.59x</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>4.59x</t>
+          <t>74.62x</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>74.62x</t>
+          <t>19.08x</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>19.08x</t>
+          <t>23.89x</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>23.89x</t>
+          <t>17.08x</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>17.08x</t>
+          <t>20.71x</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>20.71x</t>
+          <t>16.87x</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>16.87x</t>
+          <t>32.58x</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>32.58x</t>
+          <t>39.07x</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>39.07x</t>
+          <t>27.69x</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>27.69x</t>
+          <t>20.47x</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>20.47x</t>
+          <t>20.93x</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>20.93x</t>
+          <t>18.47x</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>18.47x</t>
+          <t>20.66x</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>20.66x</t>
+          <t>15.68x</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>15.68x</t>
+          <t>10.53x</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>10.53x</t>
+          <t>8.47x</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>8.47x</t>
+          <t>6.90x</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>6.90x</t>
+          <t>7.42x</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>7.42x</t>
+          <t>6.41x</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>6.41x</t>
+          <t>5.81x</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>5.81x</t>
+          <t>7.41x</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>7.41x</t>
+          <t>8.25x</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>8.25x</t>
+          <t>9.53x</t>
         </is>
       </c>
     </row>
@@ -9658,178 +9695,178 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.25x</t>
+          <t>3.94x</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.94x</t>
+          <t>3.93x</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.93x</t>
+          <t>3.47x</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.47x</t>
+          <t>3.41x</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.41x</t>
+          <t>3.16x</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.16x</t>
+          <t>3.40x</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.40x</t>
+          <t>3.71x</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3.71x</t>
+          <t>3.81x</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3.81x</t>
+          <t>4.34x</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4.34x</t>
+          <t>4.37x</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>4.37x</t>
+          <t>3.79x</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.79x</t>
+          <t>4.05x</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>4.05x</t>
+          <t>3.68x</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3.68x</t>
+          <t>4.68x</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>4.68x</t>
+          <t>5.78x</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>5.78x</t>
+          <t>6.32x</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>6.32x</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
           <t>7.98x</t>
         </is>
       </c>
+      <c r="Y19" s="2" t="n">
+        <v>-8.119999999999999</v>
+      </c>
       <c r="Z19" s="2" t="n">
-        <v>-8.119999999999999</v>
+        <v>-12.72</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>-12.72</v>
+        <v>-18.68</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>-18.68</v>
+        <v>-29.21</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>-29.21</v>
+        <v>-28.68</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>-28.68</v>
+        <v>-19.88</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>-19.88</v>
+        <v>-19.31</v>
       </c>
       <c r="AF19" s="2" t="n">
-        <v>-19.31</v>
+        <v>-27.24</v>
       </c>
       <c r="AG19" s="2" t="n">
-        <v>-27.24</v>
+        <v>-88.62</v>
       </c>
       <c r="AH19" s="2" t="n">
-        <v>-88.62</v>
+        <v>-291.09</v>
       </c>
       <c r="AI19" s="2" t="n">
-        <v>-291.09</v>
+        <v>-106.59</v>
       </c>
       <c r="AJ19" s="2" t="n">
-        <v>-106.59</v>
-      </c>
-      <c r="AK19" s="2" t="n">
         <v>-254.24</v>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>164.99x</t>
+        </is>
+      </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>164.99x</t>
+          <t>65.92x</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>65.92x</t>
+          <t>29.19x</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>29.19x</t>
+          <t>40.29x</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>40.29x</t>
+          <t>22.10x</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>22.10x</t>
+          <t>21.65x</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>21.65x</t>
+          <t>17.09x</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>17.09x</t>
+          <t>14.19x</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>14.19x</t>
+          <t>16.77x</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>16.77x</t>
+          <t>17.37x</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>17.37x</t>
+          <t>18.83x</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9884,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16.68x</t>
+          <t>13.08x</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13.08x</t>
+          <t>14.23x</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -9862,187 +9899,187 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>14.23x</t>
+          <t>14.27x</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>14.27x</t>
+          <t>12.22x</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12.22x</t>
+          <t>10.76x</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.76x</t>
+          <t>9.20x</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>9.20x</t>
+          <t>7.75x</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>7.75x</t>
+          <t>10.94x</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10.94x</t>
+          <t>10.81x</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10.81x</t>
+          <t>11.28x</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>11.28x</t>
+          <t>11.71x</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>11.71x</t>
+          <t>13.20x</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13.20x</t>
+          <t>13.67x</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>13.67x</t>
+          <t>9.98x</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>9.98x</t>
+          <t>10.89x</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>10.89x</t>
+          <t>17.13x</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>17.13x</t>
+          <t>9.45x</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>9.45x</t>
+          <t>14.02x</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>14.02x</t>
+          <t>18.24x</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18.24x</t>
+          <t>9.55x</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>9.55x</t>
+          <t>30.63x</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>30.63x</t>
+          <t>16.82x</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>16.82x</t>
+          <t>21.92x</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>21.92x</t>
+          <t>48.80x</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>48.80x</t>
+          <t>44.75x</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>44.75x</t>
+          <t>28.53x</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>28.53x</t>
+          <t>23.61x</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>23.61x</t>
+          <t>19.33x</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>19.33x</t>
+          <t>23.51x</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>23.51x</t>
+          <t>21.62x</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>21.62x</t>
+          <t>19.09x</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>19.09x</t>
+          <t>24.60x</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>24.60x</t>
+          <t>32.17x</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>32.17x</t>
+          <t>31.05x</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>31.05x</t>
+          <t>30.53x</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>30.53x</t>
+          <t>18.40x</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>18.40x</t>
+          <t>16.04x</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>16.04x</t>
+          <t>19.84x</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>19.82x</t>
+          <t>19.77x</t>
         </is>
       </c>
     </row>
@@ -10060,202 +10097,202 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.98x</t>
+          <t>17.69x</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17.69x</t>
+          <t>19.10x</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>19.10x</t>
+          <t>19.94x</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19.94x</t>
+          <t>19.84x</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>19.84x</t>
+          <t>17.31x</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>17.31x</t>
+          <t>14.90x</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>14.90x</t>
+          <t>12.64x</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12.64x</t>
+          <t>10.36x</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>10.36x</t>
+          <t>14.21x</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>14.21x</t>
+          <t>14.02x</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>14.02x</t>
+          <t>14.88x</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>14.88x</t>
+          <t>15.25x</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>15.25x</t>
+          <t>17.60x</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>17.60x</t>
+          <t>17.50x</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>17.50x</t>
+          <t>13.47x</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>13.47x</t>
+          <t>14.35x</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>14.35x</t>
+          <t>21.73x</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>21.73x</t>
+          <t>9.49x</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>9.49x</t>
+          <t>14.13x</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>14.13x</t>
+          <t>18.71x</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>18.71x</t>
+          <t>9.77x</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>9.77x</t>
+          <t>33.37x</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>33.37x</t>
+          <t>17.15x</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>17.15x</t>
+          <t>22.32x</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>22.32x</t>
+          <t>53.84x</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>53.84x</t>
+          <t>48.10x</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>48.10x</t>
+          <t>29.96x</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>29.96x</t>
+          <t>24.32x</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>24.32x</t>
+          <t>19.88x</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>19.88x</t>
+          <t>24.01x</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>24.01x</t>
+          <t>22.00x</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>22.00x</t>
+          <t>19.42x</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>19.42x</t>
+          <t>24.37x</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>24.37x</t>
+          <t>32.19x</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>32.19x</t>
+          <t>31.38x</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>31.38x</t>
+          <t>30.88x</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>30.88x</t>
+          <t>18.54x</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>18.54x</t>
+          <t>16.27x</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>16.27x</t>
+          <t>20.41x</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>20.39x</t>
+          <t>20.38x</t>
         </is>
       </c>
     </row>
@@ -10325,124 +10362,124 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="3" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>0.02</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>0.036</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="P23" s="3" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="S23" s="3" t="n">
         <v>0.03700000000000001</v>
       </c>
-      <c r="Q23" s="3" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>0.036</v>
-      </c>
       <c r="T23" s="3" t="n">
+        <v>0.04099999999999999</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V23" s="3" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AB23" s="3" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AC23" s="3" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AD23" s="3" t="n">
         <v>0.03700000000000001</v>
       </c>
-      <c r="U23" s="3" t="n">
-        <v>0.04099999999999999</v>
-      </c>
-      <c r="V23" s="3" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="W23" s="3" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="X23" s="3" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="Y23" s="3" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="Z23" s="3" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AA23" s="3" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="AB23" s="3" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="AC23" s="3" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="AD23" s="3" t="n">
+      <c r="AE23" s="3" t="n">
         <v>0.028</v>
       </c>
-      <c r="AE23" s="3" t="n">
-        <v>0.03700000000000001</v>
-      </c>
       <c r="AF23" s="3" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="AG23" s="3" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="AH23" s="3" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="AI23" s="3" t="n">
         <v>0.019</v>
       </c>
       <c r="AJ23" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AL23" s="3" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AM23" s="3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AN23" s="3" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AO23" s="3" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AP23" s="3" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AQ23" s="3" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AR23" s="3" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AS23" s="3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AT23" s="3" t="n">
         <v>0.019</v>
       </c>
-      <c r="AK23" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AL23" s="3" t="n">
+      <c r="AU23" s="3" t="n">
         <v>0.015</v>
-      </c>
-      <c r="AM23" s="3" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="AN23" s="3" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AO23" s="3" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AP23" s="3" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="AQ23" s="3" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AR23" s="3" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="AS23" s="3" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AT23" s="3" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AU23" s="3" t="n">
-        <v>0.019</v>
       </c>
     </row>
     <row r="24">
@@ -10459,142 +10496,142 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>60.64</v>
+        <v>66.94</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>66.94</v>
+        <v>61.09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>61.09</v>
+        <v>67.38</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>67.38</v>
+        <v>73.8</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>73.8</v>
+        <v>79.28</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>79.28</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>78.98999999999999</v>
+        <v>75.06</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>75.06</v>
+        <v>75.62</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>75.62</v>
+        <v>67.03</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>67.03</v>
+        <v>64.67</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>64.67</v>
+        <v>53.22</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>53.22</v>
+        <v>49.55</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>49.55</v>
+        <v>50.86</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>50.86</v>
+        <v>52.12</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>52.12</v>
+        <v>62.75</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>62.75</v>
+        <v>66.86</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>66.86</v>
+        <v>56.92</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>56.92</v>
+        <v>56.91</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>56.91</v>
+        <v>52.09</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>52.09</v>
+        <v>64.73</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>64.73</v>
+        <v>53.66</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>53.66</v>
+        <v>58.5</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>58.5</v>
+        <v>72.03</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>72.03</v>
+        <v>56.81</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>56.81</v>
+        <v>57.03</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>57.03</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>76.06999999999999</v>
+        <v>76.63</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>76.63</v>
+        <v>88.8</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>88.8</v>
+        <v>66.59</v>
       </c>
       <c r="AE25" s="2" t="n">
-        <v>66.59</v>
+        <v>88.02</v>
       </c>
       <c r="AF25" s="2" t="n">
-        <v>88.02</v>
+        <v>114.5</v>
       </c>
       <c r="AG25" s="2" t="n">
-        <v>114.5</v>
+        <v>148.79</v>
       </c>
       <c r="AH25" s="2" t="n">
-        <v>148.79</v>
+        <v>132.99</v>
       </c>
       <c r="AI25" s="2" t="n">
-        <v>132.99</v>
+        <v>137.65</v>
       </c>
       <c r="AJ25" s="2" t="n">
-        <v>137.65</v>
+        <v>133.88</v>
       </c>
       <c r="AK25" s="2" t="n">
-        <v>133.88</v>
+        <v>182.74</v>
       </c>
       <c r="AL25" s="2" t="n">
-        <v>182.74</v>
+        <v>157.97</v>
       </c>
       <c r="AM25" s="2" t="n">
-        <v>157.97</v>
+        <v>125.1</v>
       </c>
       <c r="AN25" s="2" t="n">
-        <v>125.1</v>
+        <v>121.19</v>
       </c>
       <c r="AO25" s="2" t="n">
-        <v>121.19</v>
+        <v>110.84</v>
       </c>
       <c r="AP25" s="2" t="n">
-        <v>110.84</v>
+        <v>124.76</v>
       </c>
       <c r="AQ25" s="2" t="n">
-        <v>124.76</v>
+        <v>113.43</v>
       </c>
       <c r="AR25" s="2" t="n">
-        <v>113.43</v>
+        <v>107.68</v>
       </c>
       <c r="AS25" s="2" t="n">
-        <v>107.68</v>
+        <v>143.49</v>
       </c>
       <c r="AT25" s="2" t="n">
-        <v>143.49</v>
+        <v>170.1</v>
       </c>
       <c r="AU25" s="2" t="n">
-        <v>170.1</v>
+        <v>208.52</v>
       </c>
     </row>
     <row r="26">
@@ -10604,142 +10641,142 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>76574.25999999999</v>
+        <v>86692.62</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>86692.62</v>
+        <v>75053.47</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>75053.47</v>
+        <v>85208.39</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>85208.39</v>
+        <v>95290.35000000001</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>95290.35000000001</v>
+        <v>102472.82</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>102472.82</v>
+        <v>101284.13</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>101284.13</v>
+        <v>93096.33</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>93096.33</v>
+        <v>93700.88</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>93700.88</v>
+        <v>78954.77</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>78954.77</v>
+        <v>73169.67999999999</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>73169.67999999999</v>
+        <v>59301.38</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>59301.38</v>
+        <v>54493.31</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>54493.31</v>
+        <v>56381.11</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>56381.11</v>
+        <v>58510.11</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>58510.11</v>
+        <v>73203.44</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>73203.44</v>
+        <v>78141.87</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>78141.87</v>
+        <v>66000.67999999999</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>66000.67999999999</v>
+        <v>67150.11</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>67150.11</v>
+        <v>61023.32</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>61023.32</v>
+        <v>78737.67999999999</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>78737.67999999999</v>
+        <v>62432.29</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>62432.29</v>
+        <v>70235.17</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>70235.17</v>
+        <v>86868.33</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>86868.33</v>
+        <v>73109.96000000001</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>73109.96000000001</v>
+        <v>75059.73</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>75059.73</v>
+        <v>98515.22</v>
       </c>
       <c r="AB26" s="1" t="n">
-        <v>98515.22</v>
+        <v>95187.85000000001</v>
       </c>
       <c r="AC26" s="1" t="n">
-        <v>95187.85000000001</v>
+        <v>105096.82</v>
       </c>
       <c r="AD26" s="1" t="n">
-        <v>105096.82</v>
+        <v>81156.22</v>
       </c>
       <c r="AE26" s="1" t="n">
-        <v>81156.22</v>
+        <v>105506.16</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>105506.16</v>
+        <v>134979.44</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>134979.44</v>
+        <v>173393.49</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>173393.49</v>
+        <v>154441.9</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>154441.9</v>
+        <v>159443.2</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>159443.2</v>
+        <v>153925.64</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>153925.64</v>
+        <v>208480.7</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>208480.7</v>
+        <v>182472.19</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>182472.19</v>
+        <v>145121.7</v>
       </c>
       <c r="AN26" s="1" t="n">
-        <v>145121.7</v>
+        <v>144793.37</v>
       </c>
       <c r="AO26" s="1" t="n">
-        <v>144793.37</v>
+        <v>134028.64</v>
       </c>
       <c r="AP26" s="1" t="n">
-        <v>134028.64</v>
+        <v>147746.4</v>
       </c>
       <c r="AQ26" s="1" t="n">
-        <v>147746.4</v>
+        <v>135670.02</v>
       </c>
       <c r="AR26" s="1" t="n">
-        <v>135670.02</v>
+        <v>126983.88</v>
       </c>
       <c r="AS26" s="1" t="n">
-        <v>126983.88</v>
+        <v>164447.37</v>
       </c>
       <c r="AT26" s="1" t="n">
-        <v>164447.37</v>
+        <v>193597.8</v>
       </c>
       <c r="AU26" s="1" t="n">
-        <v>193402.94</v>
+        <v>234314.32</v>
       </c>
     </row>
     <row r="27">
@@ -10749,142 +10786,142 @@
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>103329.26</v>
+        <v>115011.62</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>115011.62</v>
+        <v>105553.47</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>105553.47</v>
+        <v>115585.39</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>115585.39</v>
+        <v>124680.35</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>124680.35</v>
+        <v>134068.82</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>134068.82</v>
+        <v>133325.13</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>133325.13</v>
+        <v>125802.33</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>125802.33</v>
+        <v>125725.88</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>125725.88</v>
+        <v>110561.77</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>110561.77</v>
+        <v>101688.68</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>101688.68</v>
+        <v>83619.38</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>83619.38</v>
+        <v>74478.31</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>74478.31</v>
+        <v>76030.11</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>76030.11</v>
+        <v>76560.11</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>76560.11</v>
+        <v>92471.44</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>92471.44</v>
+        <v>98744.87</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>98744.87</v>
+        <v>84110.67999999999</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>84110.67999999999</v>
+        <v>84081.11</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>84081.11</v>
+        <v>76888.32000000001</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>76888.32000000001</v>
+        <v>95422.67999999999</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>95422.67999999999</v>
+        <v>79436.28999999999</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>79436.28999999999</v>
+        <v>86747.17</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>86747.17</v>
+        <v>100332.33</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>100332.33</v>
+        <v>68862.96000000001</v>
       </c>
       <c r="Z27" s="1" t="n">
-        <v>68862.96000000001</v>
+        <v>69023.73</v>
       </c>
       <c r="AA27" s="1" t="n">
-        <v>69023.73</v>
+        <v>92478.22</v>
       </c>
       <c r="AB27" s="1" t="n">
-        <v>92478.22</v>
+        <v>93155.85000000001</v>
       </c>
       <c r="AC27" s="1" t="n">
-        <v>93155.85000000001</v>
+        <v>101395.82</v>
       </c>
       <c r="AD27" s="1" t="n">
-        <v>101395.82</v>
+        <v>76115.22</v>
       </c>
       <c r="AE27" s="1" t="n">
-        <v>76115.22</v>
+        <v>99016.16</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>99016.16</v>
+        <v>129186.44</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>129186.44</v>
+        <v>168281.49</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>168281.49</v>
+        <v>151043.9</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>151043.9</v>
+        <v>155269.2</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>155269.2</v>
+        <v>151016.64</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>151016.64</v>
+        <v>204595.7</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>204595.7</v>
+        <v>178032.19</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>178032.19</v>
+        <v>140987.7</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>140987.7</v>
+        <v>136096.37</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>136096.37</v>
+        <v>124251.64</v>
       </c>
       <c r="AP27" s="1" t="n">
-        <v>124251.64</v>
+        <v>139107.4</v>
       </c>
       <c r="AQ27" s="1" t="n">
-        <v>139107.4</v>
+        <v>126361.02</v>
       </c>
       <c r="AR27" s="1" t="n">
-        <v>126361.02</v>
+        <v>120170.88</v>
       </c>
       <c r="AS27" s="1" t="n">
-        <v>120170.88</v>
+        <v>159704.37</v>
       </c>
       <c r="AT27" s="1" t="n">
-        <v>159704.37</v>
+        <v>190171.8</v>
       </c>
       <c r="AU27" s="1" t="n">
-        <v>189976.94</v>
+        <v>232708.32</v>
       </c>
     </row>
     <row r="28">
@@ -10939,28 +10976,28 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" s="1" t="n">
-        <v>47139.72</v>
+        <v>46321.58</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>46164.43</v>
+        <v>40248.16</v>
       </c>
       <c r="AP29" s="1" t="n">
-        <v>40248.16</v>
+        <v>39836.74</v>
       </c>
       <c r="AQ29" s="1" t="n">
-        <v>39836.74</v>
+        <v>36453.93</v>
       </c>
       <c r="AR29" s="1" t="n">
-        <v>36453.93</v>
+        <v>36096.13</v>
       </c>
       <c r="AS29" s="1" t="n">
-        <v>36096.13</v>
+        <v>37735</v>
       </c>
       <c r="AT29" s="1" t="n">
-        <v>37735</v>
+        <v>38631.88</v>
       </c>
       <c r="AU29" s="1" t="n">
-        <v>38620.74</v>
+        <v>40184.45</v>
       </c>
     </row>
     <row r="30">
@@ -11008,28 +11045,28 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" s="1" t="n">
-        <v>19897.24</v>
+        <v>19414.29</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>19414.29</v>
+        <v>15893.14</v>
       </c>
       <c r="AP30" s="1" t="n">
-        <v>15893.14</v>
+        <v>15270.11</v>
       </c>
       <c r="AQ30" s="1" t="n">
-        <v>15270.11</v>
+        <v>13473.18</v>
       </c>
       <c r="AR30" s="1" t="n">
-        <v>13473.18</v>
+        <v>13050.22</v>
       </c>
       <c r="AS30" s="1" t="n">
-        <v>13050.22</v>
+        <v>13724.97</v>
       </c>
       <c r="AT30" s="1" t="n">
-        <v>13724.97</v>
+        <v>14669.26</v>
       </c>
       <c r="AU30" s="1" t="n">
-        <v>14669.26</v>
+        <v>15293.77</v>
       </c>
     </row>
     <row r="31">
@@ -11077,28 +11114,28 @@
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" s="1" t="n">
-        <v>17889.81</v>
+        <v>17277.85</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>17277.85</v>
+        <v>13838.84</v>
       </c>
       <c r="AP31" s="1" t="n">
-        <v>13838.84</v>
+        <v>13824.78</v>
       </c>
       <c r="AQ31" s="1" t="n">
-        <v>13824.78</v>
+        <v>11553.5</v>
       </c>
       <c r="AR31" s="1" t="n">
-        <v>11553.5</v>
+        <v>11465.25</v>
       </c>
       <c r="AS31" s="1" t="n">
-        <v>11465.25</v>
+        <v>12277.79</v>
       </c>
       <c r="AT31" s="1" t="n">
-        <v>12277.79</v>
+        <v>12862.64</v>
       </c>
       <c r="AU31" s="1" t="n">
-        <v>12862.64</v>
+        <v>13602.48</v>
       </c>
     </row>
     <row r="32">
@@ -11146,28 +11183,28 @@
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" s="2" t="n">
-        <v>13</v>
+        <v>12.72</v>
       </c>
       <c r="AO32" s="2" t="n">
-        <v>12.72</v>
+        <v>10.2</v>
       </c>
       <c r="AP32" s="2" t="n">
-        <v>10.2</v>
+        <v>10.05</v>
       </c>
       <c r="AQ32" s="2" t="n">
-        <v>10.05</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AR32" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AS32" s="2" t="n">
-        <v>8.5</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AT32" s="2" t="n">
-        <v>9.210000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AU32" s="2" t="n">
-        <v>9.76</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="33">
@@ -11215,28 +11252,28 @@
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" s="2" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AO33" s="2" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AP33" s="2" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AQ33" s="2" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="AR33" s="2" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="AS33" s="2" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AT33" s="2" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="AU33" s="2" t="n">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="34">
@@ -11284,28 +11321,28 @@
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" s="1" t="n">
-        <v>14845.78</v>
+        <v>16066.3</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>16066.3</v>
+        <v>12552.05</v>
       </c>
       <c r="AP34" s="1" t="n">
-        <v>12552.05</v>
+        <v>11989.45</v>
       </c>
       <c r="AQ34" s="1" t="n">
-        <v>11989.45</v>
+        <v>10785.48</v>
       </c>
       <c r="AR34" s="1" t="n">
-        <v>10785.48</v>
+        <v>9569.33</v>
       </c>
       <c r="AS34" s="1" t="n">
-        <v>9569.33</v>
+        <v>10001.94</v>
       </c>
       <c r="AT34" s="1" t="n">
-        <v>10001.94</v>
+        <v>10678.3</v>
       </c>
       <c r="AU34" s="1" t="n">
-        <v>10678.3</v>
+        <v>11262.97</v>
       </c>
     </row>
     <row r="35">
@@ -11328,124 +11365,124 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="1" t="n">
-        <v>25712</v>
+        <v>26276</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>26276</v>
+        <v>26487</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>26487</v>
+        <v>26964</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>26964</v>
+        <v>27491</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>27491</v>
+        <v>26517</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>26517</v>
+        <v>25281</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>25281</v>
+        <v>23957</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>23957</v>
+        <v>22614</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>22614</v>
+        <v>22826</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>22826</v>
+        <v>23554</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>23554</v>
+        <v>23778</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>23778</v>
+        <v>23243</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>23243</v>
+        <v>22571</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>22571</v>
+        <v>22291</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>22291</v>
+        <v>22360</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>22360</v>
+        <v>22605</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>22605</v>
+        <v>22832</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>22832</v>
+        <v>22732</v>
       </c>
       <c r="Z36" s="1" t="n">
-        <v>22732</v>
+        <v>21539</v>
       </c>
       <c r="AA36" s="1" t="n">
-        <v>21539</v>
+        <v>21301</v>
       </c>
       <c r="AB36" s="1" t="n">
-        <v>21301</v>
+        <v>25358</v>
       </c>
       <c r="AC36" s="1" t="n">
-        <v>25358</v>
+        <v>24273</v>
       </c>
       <c r="AD36" s="1" t="n">
-        <v>24273</v>
+        <v>24508</v>
       </c>
       <c r="AE36" s="1" t="n">
-        <v>24508</v>
+        <v>24741</v>
       </c>
       <c r="AF36" s="1" t="n">
-        <v>24741</v>
+        <v>19999</v>
       </c>
       <c r="AG36" s="1" t="n">
-        <v>19999</v>
+        <v>23531</v>
       </c>
       <c r="AH36" s="1" t="n">
-        <v>23531</v>
+        <v>26689</v>
       </c>
       <c r="AI36" s="1" t="n">
-        <v>26689</v>
+        <v>29409</v>
       </c>
       <c r="AJ36" s="1" t="n">
-        <v>29409</v>
+        <v>32576</v>
       </c>
       <c r="AK36" s="1" t="n">
-        <v>32576</v>
+        <v>33566</v>
       </c>
       <c r="AL36" s="1" t="n">
-        <v>33566</v>
+        <v>36036</v>
       </c>
       <c r="AM36" s="1" t="n">
-        <v>36036</v>
+        <v>39264</v>
       </c>
       <c r="AN36" s="1" t="n">
-        <v>39264</v>
+        <v>42141</v>
       </c>
       <c r="AO36" s="1" t="n">
-        <v>42141</v>
+        <v>44200</v>
       </c>
       <c r="AP36" s="1" t="n">
-        <v>44200</v>
+        <v>42958</v>
       </c>
       <c r="AQ36" s="1" t="n">
-        <v>42958</v>
+        <v>41070</v>
       </c>
       <c r="AR36" s="1" t="n">
-        <v>41070</v>
+        <v>38584</v>
       </c>
       <c r="AS36" s="1" t="n">
-        <v>38584</v>
+        <v>35820</v>
       </c>
       <c r="AT36" s="1" t="n">
-        <v>35820</v>
+        <v>36292</v>
       </c>
       <c r="AU36" s="1" t="n">
-        <v>36292</v>
+        <v>36407</v>
       </c>
     </row>
     <row r="37">
@@ -11514,124 +11551,124 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="1" t="n">
-        <v>8639</v>
+        <v>8896</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>8896</v>
+        <v>9184</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>9184</v>
+        <v>9381</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>9381</v>
+        <v>9768</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>9768</v>
+        <v>9097</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>9097</v>
+        <v>8669</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>8669</v>
+        <v>8029</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>8029</v>
+        <v>8272</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>8272</v>
+        <v>7668</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>7668</v>
+        <v>8240</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>8240</v>
+        <v>8554</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>8554</v>
+        <v>7881</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>7881</v>
+        <v>7146</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>7146</v>
+        <v>6546</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>6546</v>
+        <v>6144</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>6144</v>
+        <v>6544</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>6544</v>
+        <v>6911</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>6911</v>
+        <v>6792</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>6792</v>
+        <v>6462</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>6462</v>
+        <v>6552</v>
       </c>
       <c r="AB38" s="1" t="n">
-        <v>6552</v>
+        <v>11077</v>
       </c>
       <c r="AC38" s="1" t="n">
-        <v>11077</v>
+        <v>9482</v>
       </c>
       <c r="AD38" s="1" t="n">
-        <v>9482</v>
+        <v>9651</v>
       </c>
       <c r="AE38" s="1" t="n">
-        <v>9651</v>
+        <v>9693</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>9693</v>
+        <v>4890</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>4890</v>
+        <v>7620</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>7620</v>
+        <v>9129</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>9129</v>
+        <v>10374</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>10374</v>
+        <v>11830</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>11830</v>
+        <v>11371</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>11371</v>
+        <v>12751</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>12751</v>
+        <v>14484</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>14484</v>
+        <v>16793</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>16793</v>
+        <v>16563</v>
       </c>
       <c r="AP38" s="1" t="n">
-        <v>16563</v>
+        <v>15236</v>
       </c>
       <c r="AQ38" s="1" t="n">
-        <v>15236</v>
+        <v>13429</v>
       </c>
       <c r="AR38" s="1" t="n">
-        <v>13429</v>
+        <v>12166</v>
       </c>
       <c r="AS38" s="1" t="n">
-        <v>12166</v>
+        <v>10459</v>
       </c>
       <c r="AT38" s="1" t="n">
-        <v>10459</v>
+        <v>10853</v>
       </c>
       <c r="AU38" s="1" t="n">
-        <v>10853</v>
+        <v>10837</v>
       </c>
     </row>
     <row r="39">
@@ -11647,124 +11684,124 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="1" t="n">
-        <v>7550</v>
+        <v>7770</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>7770</v>
+        <v>8034</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>8034</v>
+        <v>8216</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>8216</v>
+        <v>8588</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>8588</v>
+        <v>7912</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>7912</v>
+        <v>7455</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>7455</v>
+        <v>6738</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>6738</v>
+        <v>6913</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>6913</v>
+        <v>6250</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>6250</v>
+        <v>6812</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>6812</v>
+        <v>7161</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>7161</v>
+        <v>6518</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>6518</v>
+        <v>5746</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>5746</v>
+        <v>5085</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>5085</v>
+        <v>4649</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>4649</v>
+        <v>5003</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>5003</v>
+        <v>5349</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>5349</v>
+        <v>5231</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>5231</v>
+        <v>4911</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>4911</v>
+        <v>5044</v>
       </c>
       <c r="AB39" s="1" t="n">
-        <v>5044</v>
+        <v>9630</v>
       </c>
       <c r="AC39" s="1" t="n">
-        <v>9630</v>
+        <v>8081</v>
       </c>
       <c r="AD39" s="1" t="n">
-        <v>8081</v>
+        <v>8252</v>
       </c>
       <c r="AE39" s="1" t="n">
-        <v>8252</v>
+        <v>8299</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>8299</v>
+        <v>3486</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>3486</v>
+        <v>6227</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>6227</v>
+        <v>7723</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>7723</v>
+        <v>8921</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>8921</v>
+        <v>10334</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>10334</v>
+        <v>9789</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>9789</v>
+        <v>11127</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>11127</v>
+        <v>12819</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>12819</v>
+        <v>15096</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>15096</v>
+        <v>14801</v>
       </c>
       <c r="AP39" s="1" t="n">
-        <v>14801</v>
+        <v>13482</v>
       </c>
       <c r="AQ39" s="1" t="n">
-        <v>13482</v>
+        <v>11633</v>
       </c>
       <c r="AR39" s="1" t="n">
-        <v>11633</v>
+        <v>10329</v>
       </c>
       <c r="AS39" s="1" t="n">
-        <v>10329</v>
+        <v>8650</v>
       </c>
       <c r="AT39" s="1" t="n">
-        <v>8650</v>
+        <v>9005</v>
       </c>
       <c r="AU39" s="1" t="n">
-        <v>9005</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="40">
@@ -11780,124 +11817,124 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="2" t="n">
-        <v>3.74</v>
+        <v>4.15</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>4.4</v>
+        <v>4.73</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>4.73</v>
+        <v>4.23</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>4.23</v>
+        <v>3.66</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.66</v>
+        <v>3.22</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>3.42</v>
+        <v>3.81</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>3.81</v>
+        <v>3.28</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>2.61</v>
+        <v>1.65</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1.65</v>
+        <v>-2.83</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>-2.83</v>
+        <v>-3.09</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>-3.09</v>
+        <v>-2.85</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>-2.85</v>
+        <v>-3.32</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>-3.32</v>
+        <v>1.56</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>1.89</v>
+        <v>2.73</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>2.73</v>
+        <v>3.59</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="AE40" s="2" t="n">
-        <v>3.52</v>
+        <v>3.41</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>3.41</v>
+        <v>2.35</v>
       </c>
       <c r="AG40" s="2" t="n">
-        <v>2.35</v>
+        <v>4.52</v>
       </c>
       <c r="AH40" s="2" t="n">
-        <v>4.52</v>
+        <v>5.85</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>5.85</v>
+        <v>6.98</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>6.98</v>
+        <v>8</v>
       </c>
       <c r="AK40" s="2" t="n">
-        <v>8</v>
+        <v>7.87</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>7.87</v>
+        <v>8.73</v>
       </c>
       <c r="AM40" s="2" t="n">
-        <v>8.73</v>
+        <v>9.76</v>
       </c>
       <c r="AN40" s="2" t="n">
-        <v>9.76</v>
+        <v>11.28</v>
       </c>
       <c r="AO40" s="2" t="n">
-        <v>11.28</v>
+        <v>11.41</v>
       </c>
       <c r="AP40" s="2" t="n">
-        <v>11.41</v>
+        <v>10.44</v>
       </c>
       <c r="AQ40" s="2" t="n">
-        <v>10.44</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AR40" s="2" t="n">
-        <v>9.390000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="AS40" s="2" t="n">
-        <v>7.64</v>
+        <v>6.52</v>
       </c>
       <c r="AT40" s="2" t="n">
-        <v>6.52</v>
+        <v>7.01</v>
       </c>
       <c r="AU40" s="2" t="n">
-        <v>7.01</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41">
@@ -11913,124 +11950,124 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="n">
-        <v>22.69</v>
+        <v>23.12</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>23.12</v>
+        <v>23.47</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>23.47</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>23.47</v>
+        <v>23.17</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>23.17</v>
+        <v>21.04</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>21.04</v>
+        <v>20.62</v>
       </c>
       <c r="N41" s="2" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="X41" s="2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="Y41" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z41" s="2" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA41" s="2" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB41" s="2" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AC41" s="2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AD41" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE41" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF41" s="2" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG41" s="2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AH41" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI41" s="2" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="AJ41" s="2" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AK41" s="2" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AL41" s="2" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AM41" s="2" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="AN41" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AO41" s="2" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="AP41" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="AQ41" s="2" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="AR41" s="2" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="AS41" s="2" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="AT41" s="2" t="n">
         <v>20.62</v>
       </c>
-      <c r="O41" s="2" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="P41" s="2" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="Q41" s="2" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="R41" s="2" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="S41" s="2" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="T41" s="2" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="U41" s="2" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="V41" s="2" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="W41" s="2" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="X41" s="2" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="Z41" s="2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA41" s="2" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB41" s="2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AC41" s="2" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AD41" s="2" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AE41" s="2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AF41" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG41" s="2" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AH41" s="2" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="AI41" s="2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ41" s="2" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AK41" s="2" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AL41" s="2" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AM41" s="2" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AN41" s="2" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="AO41" s="2" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AP41" s="2" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="AQ41" s="2" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="AR41" s="2" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="AS41" s="2" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="AT41" s="2" t="n">
-        <v>19.37</v>
-      </c>
       <c r="AU41" s="2" t="n">
-        <v>20.62</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="42">
@@ -12046,124 +12083,124 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>18.58</v>
+        <v>19.07</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>19.07</v>
+        <v>19.23</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>19.23</v>
+        <v>19.29</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>19.29</v>
+        <v>18.96</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>18.96</v>
+        <v>16.82</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>16.82</v>
+        <v>14.57</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>14.57</v>
+        <v>13.72</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>13.72</v>
+        <v>13.7</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>13.7</v>
+        <v>14.47</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>14.47</v>
+        <v>15.31</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>15.31</v>
+        <v>15.01</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>15.01</v>
+        <v>14.06</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>14.06</v>
+        <v>14.15</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>14.15</v>
+        <v>13.83</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>13.83</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>9.279999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>9.25</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>9.029999999999999</v>
+        <v>-6.99</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>-6.99</v>
+        <v>-4.48</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>-4.48</v>
+        <v>-4.07</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>-4.07</v>
+        <v>-2.62</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>-2.62</v>
+        <v>-3.1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>-3.1</v>
+        <v>-3.35</v>
       </c>
       <c r="AE42" s="2" t="n">
-        <v>-3.35</v>
+        <v>-4.56</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>-4.56</v>
+        <v>-4.2</v>
       </c>
       <c r="AG42" s="2" t="n">
-        <v>-4.2</v>
+        <v>-1.68</v>
       </c>
       <c r="AH42" s="2" t="n">
-        <v>-1.68</v>
+        <v>-0.46</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>-0.46</v>
+        <v>-1.29</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>-1.29</v>
+        <v>-0.53</v>
       </c>
       <c r="AK42" s="2" t="n">
-        <v>-0.53</v>
+        <v>1.11</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1.11</v>
+        <v>2.4</v>
       </c>
       <c r="AM42" s="2" t="n">
-        <v>2.4</v>
+        <v>4.29</v>
       </c>
       <c r="AN42" s="2" t="n">
-        <v>4.29</v>
+        <v>3.01</v>
       </c>
       <c r="AO42" s="2" t="n">
-        <v>3.01</v>
+        <v>5.02</v>
       </c>
       <c r="AP42" s="2" t="n">
-        <v>5.02</v>
+        <v>5.76</v>
       </c>
       <c r="AQ42" s="2" t="n">
-        <v>5.76</v>
+        <v>6.64</v>
       </c>
       <c r="AR42" s="2" t="n">
-        <v>6.64</v>
+        <v>7.59</v>
       </c>
       <c r="AS42" s="2" t="n">
-        <v>7.59</v>
+        <v>8.56</v>
       </c>
       <c r="AT42" s="2" t="n">
-        <v>8.56</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AU42" s="2" t="n">
-        <v>9.789999999999999</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="43">
@@ -12179,64 +12216,64 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>2.48</v>
@@ -12251,52 +12288,52 @@
         <v>2.48</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AG43" s="2" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AK43" s="2" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="AM43" s="2" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AN43" s="2" t="n">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AO43" s="2" t="n">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AP43" s="2" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="AQ43" s="2" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="AR43" s="2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AS43" s="2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AT43" s="2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU43" s="2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44">
@@ -12312,124 +12349,124 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="1" t="n">
-        <v>6072.75</v>
+        <v>7115.25</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>7115.25</v>
+        <v>6586.25</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>6586.25</v>
+        <v>5547</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>5547</v>
+        <v>5127.5</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>5127.5</v>
+        <v>4852</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>4852</v>
+        <v>5062.38</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>5062.38</v>
+        <v>6126.25</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>6126.25</v>
+        <v>7545.63</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>7545.63</v>
+        <v>6690.25</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>6690.25</v>
+        <v>7228.5</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>7228.5</v>
+        <v>5848.63</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>5848.63</v>
+        <v>5732.75</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>5732.75</v>
+        <v>4623.25</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>4623.25</v>
+        <v>5761.13</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>5761.13</v>
+        <v>6257.63</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>6257.63</v>
+        <v>6449.88</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>6449.88</v>
+        <v>5070.13</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>5070.13</v>
+        <v>7737.38</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>7737.38</v>
+        <v>5355.38</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>5355.38</v>
+        <v>5401.5</v>
       </c>
       <c r="AB44" s="1" t="n">
-        <v>5401.5</v>
+        <v>9964.75</v>
       </c>
       <c r="AC44" s="1" t="n">
-        <v>9964.75</v>
+        <v>3430.63</v>
       </c>
       <c r="AD44" s="1" t="n">
-        <v>3430.63</v>
+        <v>4825.5</v>
       </c>
       <c r="AE44" s="1" t="n">
-        <v>4825.5</v>
+        <v>4813.88</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>4813.88</v>
+        <v>2765.75</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>2765.75</v>
+        <v>3874.88</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>3874.88</v>
+        <v>5413.88</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>5413.88</v>
+        <v>6754.63</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>6754.63</v>
+        <v>7962.75</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>7962.75</v>
+        <v>8869.129999999999</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>8869.129999999999</v>
+        <v>8440.379999999999</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>8440.379999999999</v>
+        <v>7602.88</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>7602.88</v>
+        <v>5886</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>5886</v>
+        <v>4166.63</v>
       </c>
       <c r="AP44" s="1" t="n">
-        <v>4166.63</v>
+        <v>4758.25</v>
       </c>
       <c r="AQ44" s="1" t="n">
-        <v>4758.25</v>
+        <v>4443.63</v>
       </c>
       <c r="AR44" s="1" t="n">
-        <v>4443.63</v>
+        <v>6899.63</v>
       </c>
       <c r="AS44" s="1" t="n">
-        <v>6899.63</v>
+        <v>10250.25</v>
       </c>
       <c r="AT44" s="1" t="n">
-        <v>10250.25</v>
+        <v>9757.129999999999</v>
       </c>
       <c r="AU44" s="1" t="n">
-        <v>9757.129999999999</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="45">
@@ -12445,124 +12482,124 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="1" t="n">
-        <v>6064.63</v>
+        <v>7112.13</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>7112.13</v>
+        <v>6583.13</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>6583.13</v>
+        <v>5545.13</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>5545.13</v>
+        <v>5126.25</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>5126.25</v>
+        <v>4830.13</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>4830.13</v>
+        <v>4997.38</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>4997.38</v>
+        <v>6015.63</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>6015.63</v>
+        <v>7391.25</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>7391.25</v>
+        <v>6508.38</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>6508.38</v>
+        <v>7042.88</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>7042.88</v>
+        <v>5653</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>5653</v>
+        <v>5514.63</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>5514.63</v>
+        <v>4369.5</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>4369.5</v>
+        <v>5452.38</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>5452.38</v>
+        <v>5898.88</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>5898.88</v>
+        <v>6045.5</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>6045.5</v>
+        <v>4617</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>4617</v>
+        <v>7257.38</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>7257.38</v>
+        <v>4884.13</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>4884.13</v>
+        <v>4942.13</v>
       </c>
       <c r="AB45" s="1" t="n">
-        <v>4942.13</v>
+        <v>9537.25</v>
       </c>
       <c r="AC45" s="1" t="n">
-        <v>9537.25</v>
+        <v>3038.75</v>
       </c>
       <c r="AD45" s="1" t="n">
-        <v>3038.75</v>
+        <v>4438.63</v>
       </c>
       <c r="AE45" s="1" t="n">
-        <v>4438.63</v>
+        <v>4436.38</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>4436.38</v>
+        <v>2399.5</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>2399.5</v>
+        <v>3498.63</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>3498.63</v>
+        <v>5042</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>5042</v>
+        <v>6385.25</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>6385.25</v>
+        <v>7595.88</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>7595.88</v>
+        <v>8519.75</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>8519.75</v>
+        <v>8092.25</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>8092.25</v>
+        <v>7258.5</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>7258.5</v>
+        <v>5584.13</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>5584.13</v>
+        <v>3860.38</v>
       </c>
       <c r="AP45" s="1" t="n">
-        <v>3860.38</v>
+        <v>4432.63</v>
       </c>
       <c r="AQ45" s="1" t="n">
-        <v>4432.63</v>
+        <v>4091.75</v>
       </c>
       <c r="AR45" s="1" t="n">
-        <v>4091.75</v>
+        <v>6483.38</v>
       </c>
       <c r="AS45" s="1" t="n">
-        <v>6483.38</v>
+        <v>9816.5</v>
       </c>
       <c r="AT45" s="1" t="n">
-        <v>9816.5</v>
+        <v>9318.379999999999</v>
       </c>
       <c r="AU45" s="1" t="n">
-        <v>9318.379999999999</v>
+        <v>11419</v>
       </c>
     </row>
     <row r="46">
@@ -12745,13 +12782,13 @@
         <v>35832</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>38091.9</v>
+        <v>38369.36</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>41342.35</v>
+        <v>42343.29</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>43617.06</v>
+        <v>44946.06</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -12788,13 +12825,13 @@
         <v>-18.9</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.063</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.055</v>
+        <v>0.061</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -12830,13 +12867,13 @@
         <v>13269</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>14396.46</v>
+        <v>14568.08</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>15416.96</v>
+        <v>16020.71</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>15792.29</v>
+        <v>16489.12</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -12873,13 +12910,13 @@
         <v>-29.5</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -12915,13 +12952,13 @@
         <v>0.37</v>
       </c>
       <c r="J7" s="3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>0.3779999999999999</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0.373</v>
-      </c>
       <c r="L7" s="3" t="n">
-        <v>0.362</v>
+        <v>0.367</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -12958,13 +12995,13 @@
         <v>11460</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>12831.26</v>
+        <v>13010.93</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>14091.09</v>
+        <v>14669.01</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>14503.54</v>
+        <v>15709.72</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -13001,13 +13038,13 @@
         <v>-32.9</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0.098</v>
+        <v>0.127</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.029</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -13043,13 +13080,13 @@
         <v>0.32</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.333</v>
+        <v>0.35</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -13086,13 +13123,13 @@
         <v>11070</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>12650.75</v>
+        <v>12957.06</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>13949.12</v>
+        <v>14720.41</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>14498.04</v>
+        <v>16161.65</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -13129,13 +13166,13 @@
         <v>-33.3</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.143</v>
+        <v>0.17</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0.103</v>
+        <v>0.136</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.039</v>
+        <v>0.098</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -13171,13 +13208,13 @@
         <v>0.309</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.332</v>
+        <v>0.338</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>0.337</v>
+        <v>0.348</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.332</v>
+        <v>0.36</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -13214,13 +13251,13 @@
         <v>9486</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>10908.9</v>
+        <v>11173.54</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>12004.11</v>
+        <v>12661.55</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>12513.55</v>
+        <v>13736.82</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -13257,13 +13294,13 @@
         <v>-33.5</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.15</v>
+        <v>0.178</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.1</v>
+        <v>0.133</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0.042</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -13299,13 +13336,13 @@
         <v>0.265</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.286</v>
+        <v>0.291</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.29</v>
+        <v>0.299</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.287</v>
+        <v>0.306</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -13342,13 +13379,13 @@
         <v>8.43</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>9.720000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>10.76</v>
+        <v>11.29</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>11.3</v>
+        <v>12.43</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -13385,13 +13422,13 @@
         <v>-32.7</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.153</v>
+        <v>0.176</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0.107</v>
+        <v>0.139</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0.05</v>
+        <v>0.101</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -13427,13 +13464,13 @@
         <v>6.42</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>8.050000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>8.859999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>9.539999999999999</v>
+        <v>10.52</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -13470,13 +13507,13 @@
         <v>-43.5</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>0.254</v>
+        <v>0.297</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>0.101</v>
+        <v>0.133</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0.077</v>
+        <v>0.115</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -13512,13 +13549,13 @@
         <v>9849</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>10545.84</v>
+        <v>10795.51</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>12040.46</v>
+        <v>12591.46</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>11965.4</v>
+        <v>13510.83</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -13555,13 +13592,13 @@
         <v>0.441</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>-0.6</v>
+        <v>0.166</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.073</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -13597,13 +13634,13 @@
         <v>0.275</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0.277</v>
+        <v>0.281</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>0.291</v>
+        <v>0.297</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0.274</v>
+        <v>0.301</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -13640,13 +13677,13 @@
         <v>3.1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -13683,13 +13720,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0.05</v>
+        <v>0.059</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0.024</v>
+        <v>0.057</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0.036</v>
+        <v>0.083</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -13732,13 +13769,13 @@
         <v>56.33</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>56.49</v>
+        <v>56.47</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>56.45</v>
+        <v>56.57</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>56.17</v>
+        <v>56.67</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -13775,13 +13812,13 @@
         <v>-694</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>-671.17</v>
+        <v>-678</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-647.33</v>
+        <v>-601.88</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>-645.33</v>
+        <v>-568</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -13818,13 +13855,13 @@
         <v>1809</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>1742.19</v>
+        <v>1715.16</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>1744.49</v>
+        <v>1731.93</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1757.78</v>
+        <v>1757.98</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -13861,13 +13898,13 @@
         <v>0.027</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>-3.7</v>
+        <v>-5.2</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -13901,13 +13938,13 @@
         <v>14.31</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>13.97</v>
+        <v>13.34</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>14.17</v>
+        <v>13.73</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>14.16</v>
+        <v>13.48</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -13985,13 +14022,13 @@
         <v>7443</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>10233.96</v>
+        <v>10033.32</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>11282.69</v>
+        <v>12042.99</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>12255.52</v>
+        <v>13777.61</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -14028,13 +14065,13 @@
         <v>-50.4</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0.375</v>
+        <v>0.348</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>0.102</v>
+        <v>0.2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -14132,13 +14169,13 @@
         <v>7232</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>9029.629999999999</v>
+        <v>9311.209999999999</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>9816.440000000001</v>
+        <v>10459.5</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>10513.17</v>
+        <v>11582.95</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -14175,13 +14212,13 @@
         <v>-44.1</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0.249</v>
+        <v>0.288</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -14217,13 +14254,13 @@
         <v>10.03</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>12.24</v>
+        <v>12.94</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>11.08</v>
+        <v>12.8</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -14260,13 +14297,13 @@
         <v>-20</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>0.156</v>
+        <v>0.147</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>0.05599999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>-9.5</v>
+        <v>-1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -14309,13 +14346,13 @@
         <v>11299</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>12498.26</v>
+        <v>12377.79</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>13770.89</v>
+        <v>14147.35</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>14068.97</v>
+        <v>15100.81</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -14352,13 +14389,13 @@
         <v>0.242</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>0.106</v>
+        <v>0.095</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>0.102</v>
+        <v>0.143</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0.022</v>
+        <v>0.067</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -14394,13 +14431,13 @@
         <v>-1450</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-1201.51</v>
+        <v>-1157.37</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>-1459.25</v>
+        <v>-1435.11</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>-1443.45</v>
+        <v>-1363.77</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -14437,13 +14474,13 @@
         <v>0.359</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>0.171</v>
+        <v>0.202</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0.011</v>
+        <v>0.05</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -14479,10 +14516,10 @@
         <v>10.03</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>12.25</v>
+        <v>11.74</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>12.28</v>
+        <v>12.22</v>
       </c>
       <c r="L48" s="2" t="n">
         <v>13.17</v>
@@ -14522,13 +14559,13 @@
         <v>0.254</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0.221</v>
+        <v>0.17</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>0.002</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -14571,13 +14608,13 @@
         <v>4074</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>447.5</v>
+        <v>455.59</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-5840.95</v>
+        <v>-5183.63</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>-10233.65</v>
+        <v>-10835.98</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -14631,10 +14668,10 @@
         </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.32</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -14671,13 +14708,13 @@
         <v>19.37</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>23.2</v>
+        <v>23.44</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>27.89</v>
+        <v>27.48</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>32.16</v>
+        <v>31.99</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -14714,13 +14751,13 @@
         <v>0.206</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>0.198</v>
+        <v>0.21</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>0.202</v>
+        <v>0.172</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>0.153</v>
+        <v>0.164</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -14756,13 +14793,13 @@
         <v>34.23</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>42.81</v>
+        <v>43.06</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>40.13</v>
+        <v>42.42</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>34.57</v>
+        <v>38.09</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -14799,13 +14836,13 @@
         <v>14.46</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>19.3</v>
+        <v>21.92</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>19.98</v>
+        <v>22.18</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>19.31</v>
+        <v>22.7</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
